--- a/SonarLysaFX/src/resources/lots_Pic.xlsx
+++ b/SonarLysaFX/src/resources/lots_Pic.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\git\Redmine\SonarLysaFX\src\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="E30" sheetId="1" r:id="rId1"/>
@@ -9018,12 +9023,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9065,7 +9073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9100,7 +9108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9311,11 +9319,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N559"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="G328" sqref="G328"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -29865,7 +29885,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -37374,7 +37394,7 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -56288,7 +56308,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -61372,7 +61392,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -71113,10 +71133,10 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -77459,11 +77479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
